--- a/files/files/budget-disbursement/20181114134756_436564.xlsx
+++ b/files/files/budget-disbursement/20181114134756_436564.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nan 2557\plan\2561\gf 2561\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\acfs\files\files\budget-disbursement\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2EA244-3E73-45C2-B41B-B5642DC0FD27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130" tabRatio="907" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="15132" windowHeight="8136" tabRatio="907" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="12" state="hidden" r:id="rId1"/>
@@ -31,12 +32,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">ผลการเบิกจ่าย!$A$1:$I$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">ภาพรวม!$A$1:$M$17</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="95">
   <si>
     <t>ต.ค 55</t>
   </si>
@@ -162,9 +170,6 @@
   </si>
   <si>
     <t>รายการ</t>
-  </si>
-  <si>
-    <t>งบบุคคลากร</t>
   </si>
   <si>
     <t>งบลงทุน</t>
@@ -329,14 +334,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="187" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
     <numFmt numFmtId="188" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="189" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -897,8 +902,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="จุลภาค" xfId="1" builtinId="3"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -914,9 +919,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="th-TH"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -965,7 +970,7 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>งบบุคคลากร</c:v>
+                  <c:v>ยอดได้รับตาม พ.ร.บ. งบประมาณ</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>งบดำเนินงาน</c:v>
@@ -1012,6 +1017,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BCE7-4433-9235-EA8BD7FECA62}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1034,7 +1044,7 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>งบบุคคลากร</c:v>
+                  <c:v>ยอดได้รับตาม พ.ร.บ. งบประมาณ</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>งบดำเนินงาน</c:v>
@@ -1081,6 +1091,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BCE7-4433-9235-EA8BD7FECA62}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1103,7 +1118,7 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>งบบุคคลากร</c:v>
+                  <c:v>ยอดได้รับตาม พ.ร.บ. งบประมาณ</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>งบดำเนินงาน</c:v>
@@ -1150,6 +1165,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BCE7-4433-9235-EA8BD7FECA62}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1234,7 +1254,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1300,7 +1319,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1736131" name="Chart 3"/>
+        <xdr:cNvPr id="1736131" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000C37D1A00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1332,7 +1357,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1397,7 +1428,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1983,7 +2020,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2058,6 +2095,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2093,6 +2147,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2268,21 +2339,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.4"/>
   <cols>
-    <col min="1" max="1" width="23.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13">
       <c r="A1" s="5"/>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -2321,7 +2392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="26.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" ht="26.4">
       <c r="A2" s="31" t="s">
         <v>27</v>
       </c>
@@ -2341,7 +2412,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:13" s="4" customFormat="1">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -2361,7 +2432,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:13" s="18" customFormat="1">
       <c r="A4" s="15" t="s">
         <v>15</v>
       </c>
@@ -2381,7 +2452,7 @@
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:13">
       <c r="A5" s="13" t="s">
         <v>16</v>
       </c>
@@ -2401,7 +2472,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:13">
       <c r="A6" s="12" t="s">
         <v>22</v>
       </c>
@@ -2421,7 +2492,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:13" s="18" customFormat="1">
       <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
@@ -2441,7 +2512,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:13">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
@@ -2461,7 +2532,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:13">
       <c r="A9" s="11" t="s">
         <v>18</v>
       </c>
@@ -2481,7 +2552,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:13">
       <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
@@ -2501,7 +2572,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:13">
       <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
@@ -2521,7 +2592,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:13" s="20" customFormat="1">
       <c r="A12" s="21" t="s">
         <v>23</v>
       </c>
@@ -2541,7 +2612,7 @@
       <c r="L12" s="23"/>
       <c r="M12" s="23"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:13">
       <c r="A13" s="11" t="s">
         <v>24</v>
       </c>
@@ -2561,7 +2632,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:13" s="4" customFormat="1">
       <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
@@ -2581,7 +2652,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:13" s="18" customFormat="1">
       <c r="A15" s="15" t="s">
         <v>15</v>
       </c>
@@ -2601,7 +2672,7 @@
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:13">
       <c r="A16" s="13" t="s">
         <v>16</v>
       </c>
@@ -2621,7 +2692,7 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:13">
       <c r="A17" s="12" t="s">
         <v>22</v>
       </c>
@@ -2641,7 +2712,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:13" s="18" customFormat="1">
       <c r="A18" s="15" t="s">
         <v>17</v>
       </c>
@@ -2661,7 +2732,7 @@
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:13">
       <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
@@ -2681,7 +2752,7 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:13">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
@@ -2701,7 +2772,7 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:13">
       <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
@@ -2721,7 +2792,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:13">
       <c r="A22" s="11" t="s">
         <v>20</v>
       </c>
@@ -2740,7 +2811,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:13" s="18" customFormat="1">
       <c r="A23" s="21" t="s">
         <v>23</v>
       </c>
@@ -2760,7 +2831,7 @@
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:13">
       <c r="A24" s="11" t="s">
         <v>24</v>
       </c>
@@ -2780,7 +2851,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:13" s="4" customFormat="1">
       <c r="A25" s="8" t="s">
         <v>14</v>
       </c>
@@ -2800,7 +2871,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:13" s="18" customFormat="1">
       <c r="A26" s="15" t="s">
         <v>15</v>
       </c>
@@ -2820,7 +2891,7 @@
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:13">
       <c r="A27" s="13" t="s">
         <v>16</v>
       </c>
@@ -2840,7 +2911,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:13">
       <c r="A28" s="12" t="s">
         <v>22</v>
       </c>
@@ -2860,7 +2931,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:13" s="18" customFormat="1">
       <c r="A29" s="15" t="s">
         <v>17</v>
       </c>
@@ -2880,7 +2951,7 @@
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:13">
       <c r="A30" s="11" t="s">
         <v>21</v>
       </c>
@@ -2900,7 +2971,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:13">
       <c r="A31" s="11" t="s">
         <v>18</v>
       </c>
@@ -2920,7 +2991,7 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:13">
       <c r="A32" s="11" t="s">
         <v>19</v>
       </c>
@@ -2940,7 +3011,7 @@
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:13">
       <c r="A33" s="11" t="s">
         <v>20</v>
       </c>
@@ -2960,7 +3031,7 @@
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
     </row>
-    <row r="34" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:13" s="18" customFormat="1">
       <c r="A34" s="21" t="s">
         <v>23</v>
       </c>
@@ -2980,7 +3051,7 @@
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:13">
       <c r="A35" s="11" t="s">
         <v>24</v>
       </c>
@@ -3010,32 +3081,32 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.4"/>
   <cols>
-    <col min="1" max="1" width="23.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.09765625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.19921875" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.875" style="1" customWidth="1"/>
-    <col min="12" max="13" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.8984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.8984375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:22" ht="25.5" customHeight="1">
       <c r="A1" s="161" t="s">
         <v>12</v>
       </c>
@@ -3050,40 +3121,40 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:22" s="115" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="115" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="162"/>
       <c r="B2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="118" customFormat="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="3" spans="1:22" s="118" customFormat="1">
       <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
@@ -3133,7 +3204,7 @@
       </c>
       <c r="N3" s="49"/>
     </row>
-    <row r="4" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:22" s="20" customFormat="1">
       <c r="A4" s="15" t="s">
         <v>15</v>
       </c>
@@ -3181,7 +3252,7 @@
       <c r="M4" s="30"/>
       <c r="N4" s="30"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:22">
       <c r="A5" s="13" t="s">
         <v>16</v>
       </c>
@@ -3225,7 +3296,7 @@
       <c r="L5" s="44"/>
       <c r="M5" s="39"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:22">
       <c r="A6" s="12" t="s">
         <v>22</v>
       </c>
@@ -3271,7 +3342,7 @@
         <v>-799999.86999999918</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:22" s="20" customFormat="1">
       <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
@@ -3318,7 +3389,7 @@
       <c r="L7" s="30"/>
       <c r="M7" s="30"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:22">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
@@ -3337,7 +3408,7 @@
       <c r="K8" s="10"/>
       <c r="M8" s="44"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:22">
       <c r="A9" s="11" t="s">
         <v>18</v>
       </c>
@@ -3356,7 +3427,7 @@
       <c r="K9" s="10"/>
       <c r="M9" s="44"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:22">
       <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
@@ -3375,7 +3446,7 @@
       <c r="L10" s="44"/>
       <c r="M10" s="44"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:22">
       <c r="A11" s="11" t="s">
         <v>31</v>
       </c>
@@ -3400,7 +3471,7 @@
       <c r="K11" s="10"/>
       <c r="M11" s="44"/>
     </row>
-    <row r="12" spans="1:22" s="121" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:22" s="121" customFormat="1">
       <c r="A12" s="23" t="s">
         <v>30</v>
       </c>
@@ -3456,7 +3527,7 @@
       <c r="U12" s="120"/>
       <c r="V12" s="120"/>
     </row>
-    <row r="13" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:22" s="5" customFormat="1">
       <c r="A13" s="34" t="s">
         <v>25</v>
       </c>
@@ -3486,7 +3557,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:22" s="23" customFormat="1">
       <c r="A14" s="23" t="s">
         <v>35</v>
       </c>
@@ -3532,7 +3603,7 @@
       </c>
       <c r="L14" s="46"/>
     </row>
-    <row r="15" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:22" s="5" customFormat="1">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
@@ -3576,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:22" s="23" customFormat="1">
       <c r="A16" s="23" t="s">
         <v>39</v>
       </c>
@@ -3622,7 +3693,7 @@
       </c>
       <c r="L16" s="46"/>
     </row>
-    <row r="17" spans="1:12" s="123" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:12" s="123" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
@@ -3668,7 +3739,7 @@
       </c>
       <c r="L17" s="122"/>
     </row>
-    <row r="18" spans="1:12" s="123" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:12" s="123" customFormat="1">
       <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
@@ -3714,7 +3785,7 @@
       </c>
       <c r="L18" s="122"/>
     </row>
-    <row r="19" spans="1:12" s="123" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:12" s="123" customFormat="1">
       <c r="B19" s="122"/>
       <c r="C19" s="122"/>
       <c r="E19" s="122"/>
@@ -3723,17 +3794,17 @@
       <c r="I19" s="122"/>
       <c r="K19" s="124"/>
     </row>
-    <row r="20" spans="1:12" s="123" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:12" s="123" customFormat="1">
       <c r="B20" s="122"/>
       <c r="E20" s="122"/>
       <c r="G20" s="122"/>
     </row>
-    <row r="21" spans="1:12" s="125" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:12" s="125" customFormat="1">
       <c r="B21" s="126"/>
       <c r="F21" s="126"/>
       <c r="I21" s="126"/>
     </row>
-    <row r="22" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:12" s="18" customFormat="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3746,14 +3817,14 @@
       <c r="J22" s="44"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:12">
       <c r="F23" s="39"/>
       <c r="H23" s="39"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:12">
       <c r="E24" s="44"/>
     </row>
-    <row r="25" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:12" s="18" customFormat="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -3766,18 +3837,18 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:12">
       <c r="D27" s="39"/>
       <c r="K27" s="39"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:12">
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:12">
       <c r="D29" s="44"/>
       <c r="I29" s="44"/>
     </row>
-    <row r="30" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:12" s="4" customFormat="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3790,7 +3861,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:12" s="18" customFormat="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3803,10 +3874,10 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:12">
       <c r="E32" s="39"/>
     </row>
-    <row r="34" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:11" s="18" customFormat="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3822,13 +3893,13 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:11">
       <c r="E35" s="44">
         <f>+E32+E34</f>
         <v>3094647.14</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:11" s="4" customFormat="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3841,7 +3912,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:11" s="18" customFormat="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3854,7 +3925,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="43" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:11" s="18" customFormat="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3867,7 +3938,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="48" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:11" s="4" customFormat="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3880,7 +3951,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:11" s="18" customFormat="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3893,7 +3964,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="52" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:11" s="18" customFormat="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3906,7 +3977,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="57" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:11" s="4" customFormat="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3919,7 +3990,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:11" s="20" customFormat="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3932,7 +4003,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="61" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:11" s="20" customFormat="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3945,7 +4016,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="66" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:11" s="20" customFormat="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3958,7 +4029,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:11" s="32" customFormat="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3980,55 +4051,55 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView topLeftCell="B10" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="23.75" style="127" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="128" customWidth="1"/>
-    <col min="3" max="5" width="13.625" style="127" customWidth="1"/>
+    <col min="1" max="1" width="23.69921875" style="127" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" style="128" customWidth="1"/>
+    <col min="3" max="5" width="13.59765625" style="127" customWidth="1"/>
     <col min="6" max="6" width="9" style="127"/>
-    <col min="7" max="7" width="12.25" style="127" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" style="127" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="9" style="127"/>
-    <col min="11" max="11" width="14.75" style="127" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="127" customWidth="1"/>
-    <col min="13" max="13" width="14.375" style="127" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.69921875" style="127" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.8984375" style="127" customWidth="1"/>
+    <col min="13" max="13" width="14.3984375" style="127" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5" style="127" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="127"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="A1" s="163" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="163"/>
       <c r="C1" s="163"/>
       <c r="D1" s="163"/>
       <c r="E1" s="163"/>
     </row>
-    <row r="3" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="25.5" customHeight="1">
       <c r="A3" s="129" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="C3" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="131" t="s">
+      <c r="D3" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="131" t="s">
-        <v>74</v>
-      </c>
       <c r="E3" s="131" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="135" customFormat="1" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="135" customFormat="1">
       <c r="A4" s="132" t="s">
         <v>27</v>
       </c>
@@ -4049,7 +4120,7 @@
         <v>44.743308129164078</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="135" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="135" customFormat="1">
       <c r="A5" s="136" t="s">
         <v>15</v>
       </c>
@@ -4066,7 +4137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11">
       <c r="A6" s="139" t="s">
         <v>16</v>
       </c>
@@ -4081,7 +4152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11">
       <c r="A7" s="142" t="s">
         <v>22</v>
       </c>
@@ -4096,7 +4167,7 @@
         <v>2714000</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="135" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" s="135" customFormat="1">
       <c r="A8" s="136" t="s">
         <v>17</v>
       </c>
@@ -4116,7 +4187,7 @@
         <v>61.724907172413793</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11">
       <c r="A9" s="139" t="s">
         <v>21</v>
       </c>
@@ -4128,7 +4199,7 @@
       <c r="D9" s="141"/>
       <c r="E9" s="141"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11">
       <c r="A10" s="139" t="s">
         <v>18</v>
       </c>
@@ -4140,7 +4211,7 @@
       <c r="D10" s="141"/>
       <c r="E10" s="141"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11">
       <c r="A11" s="139" t="s">
         <v>19</v>
       </c>
@@ -4153,7 +4224,7 @@
       </c>
       <c r="E11" s="141"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11">
       <c r="A12" s="139" t="s">
         <v>31</v>
       </c>
@@ -4164,7 +4235,7 @@
       <c r="D12" s="141"/>
       <c r="E12" s="141"/>
     </row>
-    <row r="13" spans="1:11" s="135" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" s="135" customFormat="1">
       <c r="A13" s="144" t="s">
         <v>30</v>
       </c>
@@ -4184,10 +4255,10 @@
         <v>28.050640580104456</v>
       </c>
       <c r="F13" s="135" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="146" t="s">
         <v>25</v>
       </c>
@@ -4199,7 +4270,7 @@
       <c r="D14" s="154"/>
       <c r="E14" s="141"/>
     </row>
-    <row r="15" spans="1:11" s="135" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" s="135" customFormat="1">
       <c r="A15" s="144" t="s">
         <v>35</v>
       </c>
@@ -4222,7 +4293,7 @@
         <v>241276</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11">
       <c r="A16" s="148" t="s">
         <v>37</v>
       </c>
@@ -4236,7 +4307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="135" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" s="135" customFormat="1">
       <c r="A17" s="144" t="s">
         <v>39</v>
       </c>
@@ -4255,13 +4326,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="135" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K17" s="155">
         <v>184371435.09999999</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14">
       <c r="A18" s="148" t="s">
         <v>40</v>
       </c>
@@ -4276,16 +4347,16 @@
         <v>0</v>
       </c>
       <c r="J18" s="127" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K18" s="128">
         <v>7164760.79</v>
       </c>
       <c r="L18" s="127" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="148" t="s">
         <v>38</v>
       </c>
@@ -4300,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="127" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K19" s="155">
         <f>SUM(K17:K18)</f>
@@ -4318,49 +4389,49 @@
         <v>62.965721276377806</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14">
       <c r="C20" s="150"/>
       <c r="D20" s="150"/>
       <c r="J20" s="127" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K20" s="155">
         <v>298745400</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14">
       <c r="E21" s="150"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14">
       <c r="C22" s="150"/>
       <c r="D22" s="150"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14">
       <c r="C24" s="128"/>
       <c r="D24" s="128"/>
     </row>
-    <row r="59" spans="1:5" s="135" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" s="135" customFormat="1">
       <c r="A59" s="127"/>
       <c r="B59" s="128"/>
       <c r="C59" s="127"/>
       <c r="D59" s="127"/>
       <c r="E59" s="127"/>
     </row>
-    <row r="62" spans="1:5" s="135" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" s="135" customFormat="1">
       <c r="A62" s="127"/>
       <c r="B62" s="128"/>
       <c r="C62" s="127"/>
       <c r="D62" s="127"/>
       <c r="E62" s="127"/>
     </row>
-    <row r="67" spans="1:5" s="135" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" s="135" customFormat="1">
       <c r="A67" s="127"/>
       <c r="B67" s="128"/>
       <c r="C67" s="127"/>
       <c r="D67" s="127"/>
       <c r="E67" s="127"/>
     </row>
-    <row r="68" spans="1:5" s="135" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" s="135" customFormat="1">
       <c r="A68" s="127"/>
       <c r="B68" s="128"/>
       <c r="C68" s="127"/>
@@ -4377,30 +4448,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.4"/>
   <cols>
-    <col min="1" max="1" width="23.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="39" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="39" customWidth="1"/>
-    <col min="4" max="5" width="12.625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="39" customWidth="1"/>
+    <col min="1" max="1" width="23.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" style="39" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" style="39" customWidth="1"/>
+    <col min="4" max="5" width="12.59765625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="39" customWidth="1"/>
     <col min="7" max="9" width="12.5" style="39" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.125" style="39" customWidth="1"/>
-    <col min="12" max="13" width="12.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.09765625" style="39" customWidth="1"/>
+    <col min="12" max="13" width="12.3984375" style="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1">
       <c r="A1" s="99" t="s">
         <v>13</v>
       </c>
@@ -4417,48 +4488,48 @@
       <c r="L1" s="97"/>
       <c r="M1" s="97"/>
     </row>
-    <row r="2" spans="1:16" s="43" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="43" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="D2" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="E2" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="F2" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="G2" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="H2" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="I2" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="J2" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="K2" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="L2" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="M2" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="M2" s="40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="3" spans="1:16" s="18" customFormat="1">
       <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
@@ -4513,7 +4584,7 @@
       <c r="N3" s="53"/>
       <c r="O3" s="53"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:16">
       <c r="A4" s="15" t="s">
         <v>15</v>
       </c>
@@ -4569,7 +4640,7 @@
       <c r="O4" s="44"/>
       <c r="P4" s="44"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:16">
       <c r="A5" s="13" t="s">
         <v>16</v>
       </c>
@@ -4591,7 +4662,7 @@
       <c r="O5" s="44"/>
       <c r="P5" s="44"/>
     </row>
-    <row r="6" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:16" s="18" customFormat="1">
       <c r="A6" s="12" t="s">
         <v>22</v>
       </c>
@@ -4610,7 +4681,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:16">
       <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
@@ -4666,7 +4737,7 @@
       <c r="O7" s="44"/>
       <c r="P7" s="44"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:16">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
@@ -4686,7 +4757,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="44"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:16">
       <c r="A9" s="11" t="s">
         <v>18</v>
       </c>
@@ -4707,7 +4778,7 @@
       <c r="N9" s="44"/>
       <c r="O9" s="44"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:16">
       <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
@@ -4726,7 +4797,7 @@
       <c r="N10" s="44"/>
       <c r="O10" s="39"/>
     </row>
-    <row r="11" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:16" s="18" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>31</v>
       </c>
@@ -4745,7 +4816,7 @@
       <c r="N11" s="53"/>
       <c r="O11" s="53"/>
     </row>
-    <row r="12" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:16" s="18" customFormat="1">
       <c r="A12" s="23" t="s">
         <v>30</v>
       </c>
@@ -4800,7 +4871,7 @@
       <c r="N12" s="53"/>
       <c r="P12" s="53"/>
     </row>
-    <row r="13" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:16" s="18" customFormat="1">
       <c r="A13" s="34" t="s">
         <v>25</v>
       </c>
@@ -4818,7 +4889,7 @@
       <c r="M13" s="52"/>
       <c r="N13" s="53"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:16">
       <c r="A14" s="23" t="s">
         <v>35</v>
       </c>
@@ -4872,7 +4943,7 @@
       </c>
       <c r="N14" s="44"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:16">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
@@ -4889,7 +4960,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:16" s="18" customFormat="1">
       <c r="A16" s="23" t="s">
         <v>39</v>
       </c>
@@ -4943,7 +5014,7 @@
       </c>
       <c r="N16" s="53"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:13">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
@@ -4960,7 +5031,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:13">
       <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
@@ -4984,30 +5055,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.4"/>
   <cols>
-    <col min="1" max="1" width="23.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="39" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="39" customWidth="1"/>
-    <col min="4" max="5" width="12.625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="39" customWidth="1"/>
+    <col min="1" max="1" width="23.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" style="39" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" style="39" customWidth="1"/>
+    <col min="4" max="5" width="12.59765625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="39" customWidth="1"/>
     <col min="7" max="9" width="12.5" style="39" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.125" style="39" customWidth="1"/>
-    <col min="12" max="13" width="12.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.09765625" style="39" customWidth="1"/>
+    <col min="12" max="13" width="12.3984375" style="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1">
       <c r="A1" s="99" t="s">
         <v>13</v>
       </c>
@@ -5024,48 +5095,48 @@
       <c r="L1" s="97"/>
       <c r="M1" s="97"/>
     </row>
-    <row r="2" spans="1:16" s="43" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="43" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="D2" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="E2" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="F2" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="G2" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="H2" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="I2" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="J2" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="K2" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="L2" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="M2" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="M2" s="40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="3" spans="1:16" s="18" customFormat="1">
       <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
@@ -5120,7 +5191,7 @@
       <c r="N3" s="53"/>
       <c r="O3" s="53"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:16">
       <c r="A4" s="15" t="s">
         <v>15</v>
       </c>
@@ -5176,7 +5247,7 @@
       <c r="O4" s="44"/>
       <c r="P4" s="44"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:16">
       <c r="A5" s="13" t="s">
         <v>16</v>
       </c>
@@ -5196,7 +5267,7 @@
       <c r="O5" s="44"/>
       <c r="P5" s="44"/>
     </row>
-    <row r="6" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:16" s="18" customFormat="1">
       <c r="A6" s="12" t="s">
         <v>22</v>
       </c>
@@ -5213,7 +5284,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:16">
       <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
@@ -5269,7 +5340,7 @@
       <c r="O7" s="44"/>
       <c r="P7" s="44"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:16">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
@@ -5289,7 +5360,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="44"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:16">
       <c r="A9" s="11" t="s">
         <v>18</v>
       </c>
@@ -5310,7 +5381,7 @@
       <c r="N9" s="44"/>
       <c r="O9" s="44"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:16">
       <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
@@ -5331,7 +5402,7 @@
       <c r="N10" s="44"/>
       <c r="O10" s="39"/>
     </row>
-    <row r="11" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:16" s="18" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>31</v>
       </c>
@@ -5352,7 +5423,7 @@
       <c r="N11" s="53"/>
       <c r="O11" s="53"/>
     </row>
-    <row r="12" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:16" s="18" customFormat="1">
       <c r="A12" s="23" t="s">
         <v>30</v>
       </c>
@@ -5407,7 +5478,7 @@
       <c r="N12" s="53"/>
       <c r="P12" s="53"/>
     </row>
-    <row r="13" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:16" s="18" customFormat="1">
       <c r="A13" s="34" t="s">
         <v>25</v>
       </c>
@@ -5427,7 +5498,7 @@
       <c r="M13" s="52"/>
       <c r="N13" s="53"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:16">
       <c r="A14" s="23" t="s">
         <v>35</v>
       </c>
@@ -5481,7 +5552,7 @@
       </c>
       <c r="N14" s="44"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:16">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
@@ -5498,7 +5569,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:16" s="18" customFormat="1">
       <c r="A16" s="23" t="s">
         <v>39</v>
       </c>
@@ -5552,7 +5623,7 @@
       </c>
       <c r="N16" s="53"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:13">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
@@ -5569,7 +5640,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:13">
       <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
@@ -5593,28 +5664,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="89" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.4"/>
   <cols>
-    <col min="1" max="1" width="23.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="39" customWidth="1"/>
     <col min="4" max="5" width="11.5" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="12.3984375" style="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.09765625" style="1" customWidth="1"/>
     <col min="10" max="12" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" ht="25.5" customHeight="1">
       <c r="A1" s="99" t="s">
         <v>26</v>
       </c>
@@ -5631,48 +5702,48 @@
       <c r="L1" s="97"/>
       <c r="M1" s="97"/>
     </row>
-    <row r="2" spans="1:13" s="43" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="43" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="D2" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="E2" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="F2" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="G2" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="H2" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="I2" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="J2" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="K2" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="L2" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="M2" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="M2" s="40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="3" spans="1:13" s="4" customFormat="1">
       <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
@@ -5725,7 +5796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:13" s="18" customFormat="1">
       <c r="A4" s="15" t="s">
         <v>15</v>
       </c>
@@ -5778,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:13">
       <c r="A5" s="13" t="s">
         <v>16</v>
       </c>
@@ -5795,7 +5866,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:13">
       <c r="A6" s="12" t="s">
         <v>22</v>
       </c>
@@ -5812,7 +5883,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:13" s="18" customFormat="1">
       <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
@@ -5865,7 +5936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:13">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
@@ -5884,7 +5955,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:13">
       <c r="A9" s="11" t="s">
         <v>18</v>
       </c>
@@ -5903,7 +5974,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:13">
       <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
@@ -5920,7 +5991,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:13">
       <c r="A11" s="11" t="s">
         <v>31</v>
       </c>
@@ -5937,7 +6008,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="52"/>
     </row>
-    <row r="12" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:13" s="18" customFormat="1">
       <c r="A12" s="23" t="s">
         <v>30</v>
       </c>
@@ -5990,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:13" s="18" customFormat="1">
       <c r="A13" s="34" t="s">
         <v>25</v>
       </c>
@@ -6010,7 +6081,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:13" s="18" customFormat="1">
       <c r="A14" s="23" t="s">
         <v>35</v>
       </c>
@@ -6063,7 +6134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:13">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -6080,7 +6151,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:13" s="18" customFormat="1">
       <c r="A16" s="23" t="s">
         <v>39</v>
       </c>
@@ -6133,7 +6204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:13">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
@@ -6150,7 +6221,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:13">
       <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
@@ -6167,10 +6238,10 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:13">
       <c r="G20" s="39"/>
     </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:13" s="4" customFormat="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="39"/>
@@ -6185,11 +6256,11 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:13">
       <c r="B22" s="44"/>
       <c r="E22" s="44"/>
     </row>
-    <row r="25" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:13" s="18" customFormat="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -6204,19 +6275,19 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:13">
       <c r="C26" s="1"/>
       <c r="D26" s="39"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:13">
       <c r="C27" s="1"/>
       <c r="D27" s="39"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:13">
       <c r="C28" s="1"/>
       <c r="D28" s="39"/>
     </row>
-    <row r="30" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:13" s="4" customFormat="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="39"/>
@@ -6231,7 +6302,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:13" s="18" customFormat="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="39"/>
@@ -6246,7 +6317,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="34" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:13" s="18" customFormat="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="39"/>
@@ -6261,7 +6332,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="39" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:13" s="4" customFormat="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="39"/>
@@ -6276,7 +6347,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:13" s="18" customFormat="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="39"/>
@@ -6291,7 +6362,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="43" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:13" s="18" customFormat="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="39"/>
@@ -6306,7 +6377,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="48" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:13" s="4" customFormat="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="39"/>
@@ -6321,7 +6392,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:13" s="20" customFormat="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="39"/>
@@ -6336,7 +6407,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="52" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:13" s="20" customFormat="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="39"/>
@@ -6351,7 +6422,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="57" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:13" s="20" customFormat="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="39"/>
@@ -6366,7 +6437,7 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:13" s="32" customFormat="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="39"/>
@@ -6381,7 +6452,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:13" s="33" customFormat="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="39"/>
@@ -6403,31 +6474,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="19.2"/>
   <cols>
-    <col min="1" max="1" width="20.75" style="58" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" style="58" customWidth="1"/>
     <col min="2" max="2" width="11" style="66" customWidth="1"/>
     <col min="3" max="4" width="11" style="58" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="58" customWidth="1"/>
+    <col min="5" max="5" width="11.3984375" style="58" customWidth="1"/>
     <col min="6" max="7" width="12" style="58" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="58" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="66" customWidth="1"/>
-    <col min="10" max="10" width="12.25" style="58" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.375" style="58" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.19921875" style="58" customWidth="1"/>
+    <col min="9" max="9" width="12.19921875" style="66" customWidth="1"/>
+    <col min="10" max="10" width="12.19921875" style="58" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.3984375" style="58" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="10.5" style="58" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="58" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.25" style="58" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.75" style="58"/>
+    <col min="15" max="15" width="11.19921875" style="58" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.69921875" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" ht="25.5" customHeight="1">
       <c r="A1" s="99" t="s">
         <v>14</v>
       </c>
@@ -6444,48 +6515,48 @@
       <c r="L1" s="97"/>
       <c r="M1" s="97"/>
     </row>
-    <row r="2" spans="1:15" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="59" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="D2" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="E2" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="F2" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="G2" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="H2" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="I2" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="J2" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="K2" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="L2" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="M2" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="M2" s="40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="60" customFormat="1" ht="23.25" x14ac:dyDescent="0.5">
+    </row>
+    <row r="3" spans="1:15" s="60" customFormat="1" ht="23.4">
       <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
@@ -6539,7 +6610,7 @@
       </c>
       <c r="N3" s="72"/>
     </row>
-    <row r="4" spans="1:15" ht="23.25" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:15" ht="23.4">
       <c r="A4" s="15" t="s">
         <v>15</v>
       </c>
@@ -6593,7 +6664,7 @@
       </c>
       <c r="O4" s="63"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15">
       <c r="A5" s="64" t="s">
         <v>16</v>
       </c>
@@ -6612,7 +6683,7 @@
       <c r="N5" s="66"/>
       <c r="O5" s="63"/>
     </row>
-    <row r="6" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" s="60" customFormat="1">
       <c r="A6" s="67" t="s">
         <v>22</v>
       </c>
@@ -6629,7 +6700,7 @@
       <c r="L6" s="56"/>
       <c r="M6" s="56"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15">
       <c r="A7" s="61" t="s">
         <v>17</v>
       </c>
@@ -6683,7 +6754,7 @@
       </c>
       <c r="N7" s="68"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15">
       <c r="A8" s="69" t="s">
         <v>21</v>
       </c>
@@ -6703,7 +6774,7 @@
       <c r="M8" s="65"/>
       <c r="O8" s="68"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15">
       <c r="A9" s="69" t="s">
         <v>18</v>
       </c>
@@ -6722,7 +6793,7 @@
       <c r="L9" s="65"/>
       <c r="M9" s="65"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15">
       <c r="A10" s="69" t="s">
         <v>19</v>
       </c>
@@ -6741,7 +6812,7 @@
       <c r="L10" s="65"/>
       <c r="M10" s="65"/>
     </row>
-    <row r="11" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" s="60" customFormat="1">
       <c r="A11" s="69" t="s">
         <v>31</v>
       </c>
@@ -6758,7 +6829,7 @@
       <c r="L11" s="65"/>
       <c r="M11" s="65"/>
     </row>
-    <row r="12" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" s="60" customFormat="1">
       <c r="A12" s="70" t="s">
         <v>30</v>
       </c>
@@ -6812,7 +6883,7 @@
       </c>
       <c r="N12" s="72"/>
     </row>
-    <row r="13" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" s="60" customFormat="1">
       <c r="A13" s="73" t="s">
         <v>25</v>
       </c>
@@ -6833,7 +6904,7 @@
       <c r="M13" s="65"/>
       <c r="N13" s="72"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15">
       <c r="A14" s="70" t="s">
         <v>35</v>
       </c>
@@ -6887,7 +6958,7 @@
       </c>
       <c r="N14" s="66"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15">
       <c r="A15" s="57" t="s">
         <v>37</v>
       </c>
@@ -6904,7 +6975,7 @@
       <c r="L15" s="56"/>
       <c r="M15" s="56"/>
     </row>
-    <row r="16" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" s="60" customFormat="1">
       <c r="A16" s="70" t="s">
         <v>39</v>
       </c>
@@ -6957,7 +7028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14">
       <c r="A17" s="57" t="s">
         <v>40</v>
       </c>
@@ -6975,7 +7046,7 @@
       <c r="M17" s="65"/>
       <c r="N17" s="68"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14">
       <c r="A18" s="57" t="s">
         <v>38</v>
       </c>
@@ -6992,10 +7063,10 @@
       <c r="L18" s="56"/>
       <c r="M18" s="56"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14">
       <c r="L19" s="68"/>
     </row>
-    <row r="20" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" s="74" customFormat="1">
       <c r="A20" s="58"/>
       <c r="B20" s="66"/>
       <c r="C20" s="58"/>
@@ -7010,7 +7081,7 @@
       <c r="L20" s="58"/>
       <c r="M20" s="58"/>
     </row>
-    <row r="21" spans="1:14" s="60" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" s="60" customFormat="1">
       <c r="A21" s="58"/>
       <c r="B21" s="66"/>
       <c r="C21" s="58"/>
@@ -7025,11 +7096,11 @@
       <c r="L21" s="58"/>
       <c r="M21" s="58"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14">
       <c r="F22" s="68"/>
       <c r="G22" s="68"/>
     </row>
-    <row r="24" spans="1:14" s="60" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" s="60" customFormat="1">
       <c r="A24" s="58"/>
       <c r="B24" s="66"/>
       <c r="C24" s="58"/>
@@ -7044,10 +7115,10 @@
       <c r="L24" s="58"/>
       <c r="M24" s="58"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14">
       <c r="J27" s="68"/>
     </row>
-    <row r="29" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" s="74" customFormat="1">
       <c r="A29" s="58"/>
       <c r="B29" s="66"/>
       <c r="C29" s="58"/>
@@ -7062,7 +7133,7 @@
       <c r="L29" s="58"/>
       <c r="M29" s="58"/>
     </row>
-    <row r="30" spans="1:14" s="60" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" s="60" customFormat="1">
       <c r="A30" s="58"/>
       <c r="B30" s="66"/>
       <c r="C30" s="58"/>
@@ -7077,7 +7148,7 @@
       <c r="L30" s="58"/>
       <c r="M30" s="58"/>
     </row>
-    <row r="33" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" s="60" customFormat="1">
       <c r="A33" s="58"/>
       <c r="B33" s="66"/>
       <c r="C33" s="58"/>
@@ -7092,7 +7163,7 @@
       <c r="L33" s="58"/>
       <c r="M33" s="58"/>
     </row>
-    <row r="38" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" s="74" customFormat="1">
       <c r="A38" s="58"/>
       <c r="B38" s="66"/>
       <c r="C38" s="58"/>
@@ -7107,7 +7178,7 @@
       <c r="L38" s="58"/>
       <c r="M38" s="58"/>
     </row>
-    <row r="39" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:13" s="60" customFormat="1">
       <c r="A39" s="58"/>
       <c r="B39" s="66"/>
       <c r="C39" s="58"/>
@@ -7122,7 +7193,7 @@
       <c r="L39" s="58"/>
       <c r="M39" s="58"/>
     </row>
-    <row r="42" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:13" s="60" customFormat="1">
       <c r="A42" s="58"/>
       <c r="B42" s="66"/>
       <c r="C42" s="58"/>
@@ -7137,7 +7208,7 @@
       <c r="L42" s="58"/>
       <c r="M42" s="58"/>
     </row>
-    <row r="47" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:13" s="74" customFormat="1">
       <c r="A47" s="58"/>
       <c r="B47" s="66"/>
       <c r="C47" s="58"/>
@@ -7152,7 +7223,7 @@
       <c r="L47" s="58"/>
       <c r="M47" s="58"/>
     </row>
-    <row r="48" spans="1:13" s="75" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:13" s="75" customFormat="1">
       <c r="A48" s="58"/>
       <c r="B48" s="66"/>
       <c r="C48" s="58"/>
@@ -7167,7 +7238,7 @@
       <c r="L48" s="58"/>
       <c r="M48" s="58"/>
     </row>
-    <row r="51" spans="1:13" s="75" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:13" s="75" customFormat="1">
       <c r="A51" s="58"/>
       <c r="B51" s="66"/>
       <c r="C51" s="58"/>
@@ -7182,7 +7253,7 @@
       <c r="L51" s="58"/>
       <c r="M51" s="58"/>
     </row>
-    <row r="56" spans="1:13" s="75" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:13" s="75" customFormat="1">
       <c r="A56" s="58"/>
       <c r="B56" s="66"/>
       <c r="C56" s="58"/>
@@ -7197,7 +7268,7 @@
       <c r="L56" s="58"/>
       <c r="M56" s="58"/>
     </row>
-    <row r="57" spans="1:13" s="76" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:13" s="76" customFormat="1">
       <c r="A57" s="58"/>
       <c r="B57" s="66"/>
       <c r="C57" s="58"/>
@@ -7212,7 +7283,7 @@
       <c r="L57" s="58"/>
       <c r="M57" s="58"/>
     </row>
-    <row r="58" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:13" s="77" customFormat="1">
       <c r="A58" s="58"/>
       <c r="B58" s="66"/>
       <c r="C58" s="58"/>
@@ -7237,33 +7308,33 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:N42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.4"/>
   <cols>
-    <col min="1" max="1" width="23.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="39" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.09765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" style="39" customWidth="1"/>
+    <col min="5" max="5" width="13.19921875" style="1" customWidth="1"/>
     <col min="6" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.25" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.19921875" style="39" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:14">
       <c r="A2" s="99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="98"/>
       <c r="C2" s="98"/>
@@ -7278,48 +7349,48 @@
       <c r="L2" s="98"/>
       <c r="M2" s="98"/>
     </row>
-    <row r="3" spans="1:14" s="43" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="43" customFormat="1" ht="17.25" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="D3" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="E3" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="F3" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="G3" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="H3" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="I3" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="J3" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="K3" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="L3" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="M3" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="M3" s="40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="8" t="s">
         <v>27</v>
       </c>
@@ -7373,9 +7444,9 @@
       </c>
       <c r="N4" s="44"/>
     </row>
-    <row r="5" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" s="20" customFormat="1">
       <c r="A5" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="22">
         <f t="shared" ref="B5:H5" si="3">SUM(B6:B9)</f>
@@ -7426,9 +7497,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:14">
       <c r="A6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="10">
         <f>221250+74890.98</f>
@@ -7446,9 +7517,9 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:14">
       <c r="A7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="10">
         <f>312170.05+20774.2</f>
@@ -7466,9 +7537,9 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14">
       <c r="A8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="10">
         <v>2300</v>
@@ -7485,9 +7556,9 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:14">
       <c r="A9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7502,9 +7573,9 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:14">
       <c r="A10" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="16">
         <f>SUM(B11)</f>
@@ -7555,9 +7626,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:14">
       <c r="A11" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7572,7 +7643,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:14">
       <c r="A12" s="23" t="s">
         <v>30</v>
       </c>
@@ -7626,7 +7697,7 @@
       </c>
       <c r="N12" s="44"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:14">
       <c r="A13" s="34" t="s">
         <v>25</v>
       </c>
@@ -7646,9 +7717,9 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:14">
       <c r="A14" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="16">
         <f>SUM(B15)</f>
@@ -7699,9 +7770,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:14">
       <c r="A15" s="57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="56"/>
@@ -7717,12 +7788,12 @@
       <c r="M15" s="56"/>
       <c r="N15" s="44"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:14">
       <c r="F16" s="44"/>
       <c r="K16" s="44"/>
       <c r="N16" s="44"/>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.5">
+    <row r="17" spans="5:12">
       <c r="E17" s="81"/>
       <c r="F17" s="39"/>
       <c r="H17" s="81"/>
@@ -7731,124 +7802,124 @@
       <c r="K17" s="44"/>
       <c r="L17" s="44"/>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.5">
+    <row r="18" spans="5:12">
       <c r="E18" s="81"/>
       <c r="F18" s="39"/>
       <c r="H18" s="81"/>
       <c r="I18" s="80"/>
       <c r="J18" s="81"/>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.5">
+    <row r="19" spans="5:12">
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
       <c r="H19" s="81"/>
       <c r="I19" s="79"/>
       <c r="J19" s="81"/>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.5">
+    <row r="20" spans="5:12">
       <c r="F20" s="39"/>
       <c r="H20" s="81"/>
       <c r="I20" s="80"/>
       <c r="J20" s="81"/>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.5">
+    <row r="21" spans="5:12">
       <c r="F21" s="39"/>
       <c r="H21" s="81"/>
       <c r="I21" s="80"/>
       <c r="J21" s="81"/>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.5">
+    <row r="22" spans="5:12">
       <c r="F22" s="39"/>
       <c r="H22" s="81"/>
       <c r="I22" s="80"/>
       <c r="J22" s="81"/>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.5">
+    <row r="23" spans="5:12">
       <c r="F23" s="39"/>
       <c r="H23" s="81"/>
       <c r="I23" s="80"/>
       <c r="J23" s="39"/>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.5">
+    <row r="24" spans="5:12">
       <c r="F24" s="44"/>
       <c r="H24" s="81"/>
       <c r="I24" s="79"/>
       <c r="J24" s="39"/>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.5">
+    <row r="25" spans="5:12">
       <c r="H25" s="81"/>
       <c r="I25" s="80"/>
       <c r="J25" s="39"/>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.5">
+    <row r="26" spans="5:12">
       <c r="H26" s="81"/>
       <c r="I26" s="80"/>
       <c r="J26" s="39"/>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.5">
+    <row r="27" spans="5:12">
       <c r="H27" s="81"/>
       <c r="I27" s="80"/>
       <c r="J27" s="39"/>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.5">
+    <row r="28" spans="5:12">
       <c r="H28" s="81"/>
       <c r="I28" s="80"/>
       <c r="J28" s="39"/>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.5">
+    <row r="29" spans="5:12">
       <c r="H29" s="81"/>
       <c r="I29" s="80"/>
       <c r="J29" s="39"/>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.5">
+    <row r="30" spans="5:12">
       <c r="H30" s="81"/>
       <c r="I30" s="80"/>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.5">
+    <row r="31" spans="5:12">
       <c r="H31" s="81"/>
       <c r="I31" s="80"/>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.5">
+    <row r="32" spans="5:12">
       <c r="H32" s="81"/>
       <c r="I32" s="80"/>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.5">
+    <row r="33" spans="8:9">
       <c r="H33" s="81"/>
       <c r="I33" s="80"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.5">
+    <row r="34" spans="8:9">
       <c r="H34" s="81"/>
       <c r="I34" s="80"/>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.5">
+    <row r="35" spans="8:9">
       <c r="H35" s="81"/>
       <c r="I35" s="80"/>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.5">
+    <row r="36" spans="8:9">
       <c r="H36" s="81"/>
       <c r="I36" s="80"/>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.5">
+    <row r="37" spans="8:9">
       <c r="H37" s="81"/>
       <c r="I37" s="80"/>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.5">
+    <row r="38" spans="8:9">
       <c r="H38" s="81"/>
       <c r="I38" s="80"/>
     </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.5">
+    <row r="39" spans="8:9">
       <c r="H39" s="81"/>
       <c r="I39" s="80"/>
     </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.5">
+    <row r="40" spans="8:9">
       <c r="H40" s="81"/>
       <c r="I40" s="80"/>
     </row>
-    <row r="41" spans="8:9" x14ac:dyDescent="0.5">
+    <row r="41" spans="8:9">
       <c r="H41" s="81"/>
       <c r="I41" s="80"/>
     </row>
-    <row r="42" spans="8:9" x14ac:dyDescent="0.5">
+    <row r="42" spans="8:9">
       <c r="H42" s="81"/>
       <c r="I42" s="80"/>
     </row>
@@ -7859,70 +7930,70 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BJ79"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.4"/>
   <cols>
-    <col min="1" max="1" width="23.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="14.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="39" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="13.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.8984375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="14.09765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.8984375" style="39" customWidth="1"/>
+    <col min="9" max="9" width="16.09765625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="13.8984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.09765625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:62">
       <c r="A1" s="24" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="D1" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="E1" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="J1" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="K1" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="L1" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="M1" s="40" t="s">
         <v>93</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>94</v>
       </c>
       <c r="N1" s="93"/>
       <c r="O1" s="80"/>
@@ -7974,7 +8045,7 @@
       <c r="BI1" s="80"/>
       <c r="BJ1" s="80"/>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:62">
       <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
@@ -8076,7 +8147,7 @@
       <c r="BI2" s="80"/>
       <c r="BJ2" s="80"/>
     </row>
-    <row r="3" spans="1:62" s="48" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:62" s="48" customFormat="1">
       <c r="A3" s="15" t="s">
         <v>15</v>
       </c>
@@ -8178,7 +8249,7 @@
       <c r="BI3" s="94"/>
       <c r="BJ3" s="94"/>
     </row>
-    <row r="4" spans="1:62" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:62" s="18" customFormat="1">
       <c r="A4" s="13" t="s">
         <v>16</v>
       </c>
@@ -8280,7 +8351,7 @@
       <c r="BI4" s="80"/>
       <c r="BJ4" s="80"/>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:62">
       <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
@@ -8382,7 +8453,7 @@
       <c r="BI5" s="80"/>
       <c r="BJ5" s="80"/>
     </row>
-    <row r="6" spans="1:62" s="48" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:62" s="48" customFormat="1">
       <c r="A6" s="15" t="s">
         <v>17</v>
       </c>
@@ -8484,7 +8555,7 @@
       <c r="BI6" s="94"/>
       <c r="BJ6" s="94"/>
     </row>
-    <row r="7" spans="1:62" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:62" s="18" customFormat="1">
       <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
@@ -8586,7 +8657,7 @@
       <c r="BI7" s="80"/>
       <c r="BJ7" s="80"/>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:62">
       <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
@@ -8688,7 +8759,7 @@
       <c r="BI8" s="80"/>
       <c r="BJ8" s="80"/>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:62">
       <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
@@ -8790,7 +8861,7 @@
       <c r="BI9" s="80"/>
       <c r="BJ9" s="80"/>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:62">
       <c r="A10" s="11" t="s">
         <v>31</v>
       </c>
@@ -8892,7 +8963,7 @@
       <c r="BI10" s="80"/>
       <c r="BJ10" s="80"/>
     </row>
-    <row r="11" spans="1:62" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:62" s="20" customFormat="1">
       <c r="A11" s="23" t="s">
         <v>30</v>
       </c>
@@ -8994,7 +9065,7 @@
       <c r="BI11" s="94"/>
       <c r="BJ11" s="94"/>
     </row>
-    <row r="12" spans="1:62" s="47" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:62" s="47" customFormat="1">
       <c r="A12" s="34" t="s">
         <v>25</v>
       </c>
@@ -9096,7 +9167,7 @@
       <c r="BI12" s="80"/>
       <c r="BJ12" s="80"/>
     </row>
-    <row r="13" spans="1:62" s="47" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:62" s="47" customFormat="1">
       <c r="A13" s="23" t="s">
         <v>35</v>
       </c>
@@ -9198,7 +9269,7 @@
       <c r="BI13" s="80"/>
       <c r="BJ13" s="80"/>
     </row>
-    <row r="14" spans="1:62" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:62" s="20" customFormat="1">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -9300,7 +9371,7 @@
       <c r="BI14" s="94"/>
       <c r="BJ14" s="94"/>
     </row>
-    <row r="15" spans="1:62" s="47" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:62" s="47" customFormat="1">
       <c r="A15" s="23" t="s">
         <v>39</v>
       </c>
@@ -9402,7 +9473,7 @@
       <c r="BI15" s="80"/>
       <c r="BJ15" s="80"/>
     </row>
-    <row r="16" spans="1:62" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:62" s="20" customFormat="1">
       <c r="A16" s="5" t="s">
         <v>40</v>
       </c>
@@ -9504,7 +9575,7 @@
       <c r="BI16" s="94"/>
       <c r="BJ16" s="94"/>
     </row>
-    <row r="17" spans="1:62" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:62" s="18" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>38</v>
       </c>
@@ -9606,13 +9677,13 @@
       <c r="BI17" s="80"/>
       <c r="BJ17" s="80"/>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:62">
       <c r="C18" s="44"/>
       <c r="E18" s="44"/>
       <c r="F18" s="39"/>
       <c r="G18" s="44"/>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:62">
       <c r="B19" s="80"/>
       <c r="C19" s="81"/>
       <c r="D19" s="79"/>
@@ -9627,7 +9698,7 @@
       <c r="M19" s="80"/>
       <c r="N19" s="80"/>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:62">
       <c r="B20" s="80"/>
       <c r="C20" s="81"/>
       <c r="D20" s="81"/>
@@ -9642,7 +9713,7 @@
       <c r="M20" s="80"/>
       <c r="N20" s="81"/>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:62">
       <c r="B21" s="80"/>
       <c r="C21" s="81"/>
       <c r="D21" s="92"/>
@@ -9657,7 +9728,7 @@
       <c r="M21" s="80"/>
       <c r="N21" s="80"/>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:62">
       <c r="A22" s="39"/>
       <c r="B22" s="81"/>
       <c r="C22" s="81"/>
@@ -9673,7 +9744,7 @@
       <c r="M22" s="79"/>
       <c r="N22" s="81"/>
     </row>
-    <row r="23" spans="1:62" s="39" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:62" s="39" customFormat="1">
       <c r="B23" s="81"/>
       <c r="C23" s="81"/>
       <c r="D23" s="81"/>
@@ -9688,7 +9759,7 @@
       <c r="M23" s="81"/>
       <c r="N23" s="81"/>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:62">
       <c r="B24" s="81"/>
       <c r="C24" s="81"/>
       <c r="D24" s="81"/>
@@ -9703,7 +9774,7 @@
       <c r="M24" s="80"/>
       <c r="N24" s="80"/>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:62">
       <c r="B25" s="81"/>
       <c r="C25" s="81"/>
       <c r="D25" s="81"/>
@@ -9718,7 +9789,7 @@
       <c r="M25" s="80"/>
       <c r="N25" s="80"/>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:62">
       <c r="B26" s="81"/>
       <c r="C26" s="81"/>
       <c r="D26" s="81"/>
@@ -9733,7 +9804,7 @@
       <c r="M26" s="80"/>
       <c r="N26" s="85"/>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:62">
       <c r="B27" s="81"/>
       <c r="C27" s="81"/>
       <c r="D27" s="81"/>
@@ -9748,7 +9819,7 @@
       <c r="M27" s="88"/>
       <c r="N27" s="88"/>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:62">
       <c r="B28" s="81"/>
       <c r="C28" s="81"/>
       <c r="D28" s="81"/>
@@ -9763,7 +9834,7 @@
       <c r="M28" s="81"/>
       <c r="N28" s="89"/>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:62">
       <c r="B29" s="81"/>
       <c r="C29" s="81"/>
       <c r="D29" s="81"/>
@@ -9778,7 +9849,7 @@
       <c r="M29" s="81"/>
       <c r="N29" s="81"/>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:62">
       <c r="B30" s="81"/>
       <c r="C30" s="81"/>
       <c r="D30" s="81"/>
@@ -9793,7 +9864,7 @@
       <c r="M30" s="81"/>
       <c r="N30" s="81"/>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:62">
       <c r="B31" s="81"/>
       <c r="C31" s="81"/>
       <c r="D31" s="81"/>
@@ -9808,7 +9879,7 @@
       <c r="M31" s="81"/>
       <c r="N31" s="81"/>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:62">
       <c r="B32" s="90"/>
       <c r="C32" s="80"/>
       <c r="D32" s="81"/>
@@ -9823,7 +9894,7 @@
       <c r="M32" s="81"/>
       <c r="N32" s="81"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:14">
       <c r="B33" s="90"/>
       <c r="C33" s="81"/>
       <c r="D33" s="81"/>
@@ -9838,7 +9909,7 @@
       <c r="M33" s="81"/>
       <c r="N33" s="81"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:14">
       <c r="B34" s="90"/>
       <c r="C34" s="81"/>
       <c r="D34" s="81"/>
@@ -9853,7 +9924,7 @@
       <c r="M34" s="81"/>
       <c r="N34" s="81"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:14">
       <c r="B35" s="90"/>
       <c r="C35" s="80"/>
       <c r="D35" s="81"/>
@@ -9868,7 +9939,7 @@
       <c r="M35" s="81"/>
       <c r="N35" s="81"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:14">
       <c r="B36" s="90"/>
       <c r="C36" s="80"/>
       <c r="D36" s="81"/>
@@ -9883,7 +9954,7 @@
       <c r="M36" s="81"/>
       <c r="N36" s="81"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:14">
       <c r="B37" s="90"/>
       <c r="C37" s="80"/>
       <c r="D37" s="79"/>
@@ -9898,7 +9969,7 @@
       <c r="M37" s="81"/>
       <c r="N37" s="81"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:14">
       <c r="B38" s="90"/>
       <c r="C38" s="80"/>
       <c r="D38" s="80"/>
@@ -9913,7 +9984,7 @@
       <c r="M38" s="81"/>
       <c r="N38" s="81"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:14">
       <c r="B39" s="50"/>
       <c r="F39" s="44"/>
       <c r="G39" s="44"/>
@@ -9925,128 +9996,128 @@
       <c r="M39" s="39"/>
       <c r="N39" s="39"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:14">
       <c r="B40" s="50"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:14">
       <c r="B41" s="50"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:14">
       <c r="B42" s="50"/>
       <c r="D42" s="39"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:14">
       <c r="B43" s="50"/>
       <c r="D43" s="44"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:14">
       <c r="B44" s="50"/>
       <c r="F44" s="39"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:14">
       <c r="B45" s="50"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:14">
       <c r="B46" s="50"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:14">
       <c r="B47" s="50"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:14">
       <c r="B48" s="50"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:8">
       <c r="B49" s="50"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:8">
       <c r="B50" s="50"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:8">
       <c r="B51" s="50"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:8">
       <c r="B52" s="50"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:8">
       <c r="B53" s="50"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:8">
       <c r="B54" s="50"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:8">
       <c r="B55" s="50"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:8">
       <c r="B56" s="50"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:8">
       <c r="B57" s="50"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:8">
       <c r="B58" s="50"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:8">
       <c r="B59" s="50"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:8">
       <c r="B60" s="50"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:8">
       <c r="B61" s="50"/>
       <c r="H61" s="49"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:8">
       <c r="B62" s="50"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:8">
       <c r="B63" s="50"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:8">
       <c r="B64" s="50"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:2">
       <c r="B65" s="50"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:2">
       <c r="B66" s="50"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:2">
       <c r="B67" s="50"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:2">
       <c r="B68" s="50"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:2">
       <c r="B69" s="50"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:2">
       <c r="B70" s="50"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:2">
       <c r="B71" s="50"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:2">
       <c r="B72" s="50"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:2">
       <c r="B73" s="50"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:2">
       <c r="B74" s="50"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:2">
       <c r="B75" s="50"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:2">
       <c r="B76" s="50"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:2">
       <c r="B77" s="50"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:2">
       <c r="B78" s="50"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:2">
       <c r="B79" s="50"/>
     </row>
   </sheetData>
@@ -10057,32 +10128,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="B1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.4"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.09765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.59765625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:8">
       <c r="B1" s="159" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" s="159"/>
       <c r="D1" s="159"/>
@@ -10091,9 +10162,9 @@
       <c r="G1" s="159"/>
       <c r="H1" s="159"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:8">
       <c r="B2" s="160" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="160"/>
       <c r="D2" s="160"/>
@@ -10102,21 +10173,21 @@
       <c r="G2" s="160"/>
       <c r="H2" s="160"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:8">
       <c r="B3" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>43</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>44</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>33</v>
@@ -10125,9 +10196,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:8">
       <c r="B4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="82">
         <v>83.467299999999994</v>
@@ -10149,9 +10220,9 @@
         <v>309.42289999999997</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:8">
       <c r="B5" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="114">
         <v>27.793925000000002</v>
@@ -10173,7 +10244,7 @@
         <v>71.070792999999995</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:8">
       <c r="B6" s="5" t="s">
         <v>34</v>
       </c>
@@ -10215,41 +10286,41 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="26.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.5" style="100" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="109" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="100" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3984375" style="100" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="100"/>
-    <col min="5" max="5" width="16.375" style="100" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3984375" style="100" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="100" customWidth="1"/>
     <col min="7" max="16384" width="11.5" style="100"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="26.25" customHeight="1">
       <c r="A1" s="101" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="105" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="26.25" customHeight="1">
       <c r="A2" s="102" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="106">
         <v>80364900</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="26.25" customHeight="1">
       <c r="A3" s="103" t="s">
         <v>32</v>
       </c>
@@ -10257,23 +10328,23 @@
         <v>85600500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="26.25" customHeight="1">
       <c r="A4" s="103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="107">
         <v>24628700</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="26.25" customHeight="1">
       <c r="A5" s="103" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="107">
         <v>5362500</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="26.25" customHeight="1">
       <c r="A6" s="104" t="s">
         <v>33</v>
       </c>
@@ -10281,7 +10352,7 @@
         <v>102968800</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="26.25" customHeight="1">
       <c r="A7" s="101" t="s">
         <v>27</v>
       </c>
@@ -10290,11 +10361,11 @@
         <v>298925400</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="26.25" customHeight="1">
       <c r="E9" s="109"/>
       <c r="F9" s="109"/>
     </row>
-    <row r="10" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="26.25" customHeight="1">
       <c r="A10" s="112">
         <f>+B7*33.14/100</f>
         <v>99063877.560000002</v>
@@ -10303,7 +10374,7 @@
       <c r="E10" s="109"/>
       <c r="F10" s="109"/>
     </row>
-    <row r="11" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="26.25" customHeight="1">
       <c r="A11" s="112">
         <f>+B7*22.88/100</f>
         <v>68394131.519999996</v>
@@ -10311,7 +10382,7 @@
       <c r="C11" s="111"/>
       <c r="F11" s="109"/>
     </row>
-    <row r="12" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="26.25" customHeight="1">
       <c r="A12" s="112">
         <f>+B7*24.16/100</f>
         <v>72220376.640000001</v>
@@ -10319,14 +10390,14 @@
       <c r="C12" s="111"/>
       <c r="F12" s="109"/>
     </row>
-    <row r="13" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="26.25" customHeight="1">
       <c r="A13" s="112">
         <f>+B7*19.82/100</f>
         <v>59247014.280000001</v>
       </c>
       <c r="F13" s="109"/>
     </row>
-    <row r="14" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="26.25" customHeight="1">
       <c r="A14" s="113">
         <f>SUM(A10:A13)</f>
         <v>298925400</v>
